--- a/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2_status.xlsx
+++ b/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2_status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>25/10/2017</t>
+  </si>
+  <si>
+    <t>This is done on other tableau account as there is some issue on existing online account.</t>
   </si>
   <si>
     <t>Dashboard 4,5,6</t>
@@ -254,13 +257,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,45 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,16 +303,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,9 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,14 +342,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -393,7 +357,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,22 +372,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +394,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,73 +433,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,109 +589,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,26 +651,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,13 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,9 +707,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,10 +729,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,134 +747,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +884,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -905,10 +896,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -917,37 +911,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -956,11 +926,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -968,13 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1294,554 +1255,554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C26" sqref="C26:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="21"/>
-    <col min="2" max="2" width="48.4285714285714" style="22" customWidth="1"/>
-    <col min="3" max="3" width="24.5714285714286" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="21"/>
-    <col min="5" max="5" width="14.8571428571429" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.8571428571429" style="21" customWidth="1"/>
-    <col min="7" max="7" width="13.8571428571429" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="21"/>
+    <col min="1" max="1" width="9.14285714285714" style="15"/>
+    <col min="2" max="2" width="48.4285714285714" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.5714285714286" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="15"/>
+    <col min="5" max="5" width="14.8571428571429" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20.8571428571429" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21">
+      <c r="A3" s="15">
         <v>1.1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17">
         <v>42835</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21">
+      <c r="A4" s="15">
         <v>1.2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="15">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17">
         <v>42835</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21">
+      <c r="A5" s="15">
         <v>1.3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="15">
         <v>0.5</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17">
         <v>42835</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="10:10">
-      <c r="J6" s="5"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21">
+      <c r="A8" s="15">
         <v>2.01</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="15">
         <v>3</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17">
         <v>42835</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21">
+      <c r="A9" s="15">
         <v>2.02</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17">
         <v>42835</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21">
+      <c r="A10" s="15">
         <v>2.03</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17">
         <v>42835</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21">
+      <c r="A11" s="15">
         <v>2.04</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="15">
         <v>5</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17">
         <v>42835</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21">
+      <c r="A12" s="15">
         <v>2.05</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>5</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17">
         <v>42835</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21">
+      <c r="A13" s="15">
         <v>2.06</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="15">
         <v>8</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17">
         <v>42926</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21">
+      <c r="A14" s="15">
         <v>2.07</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>3</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17">
         <v>42926</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21">
+      <c r="A15" s="15">
         <v>2.08</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="15">
         <v>5</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17">
         <v>42926</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21">
+      <c r="A16" s="15">
         <v>2.09</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="15">
         <v>3</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17">
         <v>43018</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
+      <c r="A17" s="15">
         <v>2.1</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="15">
         <v>8</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17">
         <v>43018</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21">
+      <c r="A18" s="15">
         <v>2.11</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="15">
         <v>3</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="17">
         <v>43049</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21">
+      <c r="A19" s="15">
         <v>2.12</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="15">
         <v>5</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21">
+      <c r="A20" s="15">
         <v>2.13</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="15">
         <v>3</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21">
+      <c r="A21" s="15">
         <v>2.14</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="15">
         <v>5</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>3</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" ht="30" spans="1:6">
-      <c r="A26" s="21">
+      <c r="A26" s="15">
         <v>3.01</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="19">
         <v>7</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17">
         <v>42957</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="30" spans="1:6">
-      <c r="A27" s="21">
+      <c r="A27" s="15">
         <v>3.02</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="19">
         <v>7</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="17">
         <v>43018</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21">
+      <c r="A28" s="15">
         <v>3.03</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="19">
         <v>2</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="17">
         <v>43079</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21">
+      <c r="A29" s="15">
         <v>3.04</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="19">
         <v>4</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="D29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="17">
         <v>43079</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="21">
+      <c r="A30" s="15">
         <v>3.05</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="19">
         <v>16</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="23" t="s">
+      <c r="D30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21">
+      <c r="A31" s="15">
         <v>3.06</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="19">
         <v>15</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="28"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="27"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="28"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1850,12 +1811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1865,230 +1826,268 @@
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="20.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="61.2857142857143" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2.11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="10">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>2.12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>2.13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>2.14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12">
+      <c r="E7" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10">
         <v>2.01</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12">
+      <c r="F8" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10">
         <v>2.02</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>4</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="F9" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>2.03</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>8</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>2.04</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>6</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>3.01</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>3</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:5">
-      <c r="A14" s="12">
+    <row r="14" ht="30" spans="1:6">
+      <c r="A14" s="10">
         <v>3.02</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>3.03</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2101,269 +2100,300 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12">
+    <row r="20" spans="1:6">
+      <c r="A20" s="10">
         <v>1.01</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12">
-        <v>1.02</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E22" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12">
-        <v>1.03</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="19">
+    <row r="23" spans="1:5">
+      <c r="A23" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="14">
         <v>2</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12">
-        <v>1.04</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="19">
-        <v>2</v>
-      </c>
-      <c r="D23" s="15" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="14">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12">
-        <v>1.05</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="19">
-        <v>7</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12">
+    <row r="27" spans="1:6">
+      <c r="A27" s="10">
         <v>2.01</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="14">
         <v>5</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12">
+      <c r="F27" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10">
         <v>2.02</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="14">
         <v>3</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12">
+      <c r="F28" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10">
         <v>2.03</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="14">
         <v>7</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12">
+      <c r="F29" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10">
         <v>2.04</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="14">
         <v>10</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="F30" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12">
+    <row r="33" ht="30" spans="1:7">
+      <c r="A33" s="10">
         <v>3.01</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="14">
         <v>5</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="F33" s="14">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="17"/>
+      <c r="B35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="13"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>4.01</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="19">
+      <c r="B36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="14">
         <v>30</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>5.01</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="19">
+      <c r="B38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="14">
         <v>11</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>6.01</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="B40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="14">
         <v>30</v>
       </c>
       <c r="D40" s="1"/>

--- a/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2_status.xlsx
+++ b/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2_status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>Dashboard 7</t>
+  </si>
+  <si>
+    <t>Status Change</t>
+  </si>
+  <si>
+    <t>Understand the logic and get the calculations</t>
+  </si>
+  <si>
+    <t>Tasks related to "STATUS Change" needs to be done on priority before Dashboard 7. This change may delay the deveopment of Dashboard 7.</t>
+  </si>
+  <si>
+    <t>Apply changes on all the dashboards</t>
+  </si>
+  <si>
+    <t>Checking if the filters are working fine</t>
   </si>
 </sst>
 </file>
@@ -258,10 +273,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -280,21 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -303,8 +303,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,22 +335,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +412,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,17 +425,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,37 +438,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -433,19 +448,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,67 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,91 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,50 +642,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +681,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -724,20 +715,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,130 +762,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1813,10 +1828,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2399,6 +2414,47 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" ht="45" spans="1:7">
+      <c r="A43" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2_status.xlsx
+++ b/frontend_mockups/timelines/Status/WB_TimeLines_Phase_1_v1_2_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -198,6 +198,24 @@
     <t>29-10-2017</t>
   </si>
   <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Creating SQL for Status Change</t>
+  </si>
+  <si>
+    <t>Changes as discussed on 2nd Nov for playlist name</t>
+  </si>
+  <si>
+    <t>Researhcing on fetching data from google</t>
+  </si>
+  <si>
+    <t>Automating google fetch and insert</t>
+  </si>
+  <si>
+    <t>SQL Support</t>
+  </si>
+  <si>
     <t>Tableau Tasks</t>
   </si>
   <si>
@@ -249,7 +267,13 @@
     <t>Designing the viz</t>
   </si>
   <si>
-    <t>Dashboard 7</t>
+    <t>Dashboard 7 Video Data Analysis</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>15/11/2017</t>
   </si>
   <si>
     <t>Status Change</t>
@@ -265,6 +289,9 @@
   </si>
   <si>
     <t>Checking if the filters are working fine</t>
+  </si>
+  <si>
+    <t>Changes Discussed on 2nd Nov for consolidating dashboard 3,4,5,6</t>
   </si>
 </sst>
 </file>
@@ -274,9 +301,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -295,6 +322,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -303,8 +345,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -320,44 +392,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -372,39 +406,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,22 +429,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,181 +475,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,45 +666,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,10 +686,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -710,8 +696,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,11 +743,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,134 +789,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,7 +927,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -929,6 +959,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -937,9 +970,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1280,427 +1310,427 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="15"/>
-    <col min="2" max="2" width="48.4285714285714" style="16" customWidth="1"/>
-    <col min="3" max="3" width="24.5714285714286" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="15"/>
-    <col min="5" max="5" width="14.8571428571429" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.8571428571429" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.8571428571429" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="15"/>
+    <col min="1" max="1" width="9.14285714285714" style="17"/>
+    <col min="2" max="2" width="48.4285714285714" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5714285714286" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="17"/>
+    <col min="5" max="5" width="14.8571428571429" style="18" customWidth="1"/>
+    <col min="6" max="6" width="20.8571428571429" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15">
+      <c r="A3" s="17">
         <v>1.1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="17">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18">
         <v>42835</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <v>1.2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="17">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18">
         <v>42835</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>1.3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="17">
         <v>0.5</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="18">
         <v>42835</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="10:10">
-      <c r="J6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15">
+      <c r="A8" s="17">
         <v>2.01</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
         <v>42835</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15">
+      <c r="A9" s="17">
         <v>2.02</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="17">
         <v>3</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18">
         <v>42835</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15">
+      <c r="A10" s="17">
         <v>2.03</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="18">
         <v>42835</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15">
+      <c r="A11" s="17">
         <v>2.04</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>5</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="18">
         <v>42835</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15">
+      <c r="A12" s="17">
         <v>2.05</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="17">
         <v>5</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="18">
         <v>42835</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15">
+      <c r="A13" s="17">
         <v>2.06</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="17">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="18">
         <v>42926</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15">
+      <c r="A14" s="17">
         <v>2.07</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="17">
         <v>3</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="18">
         <v>42926</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15">
+      <c r="A15" s="17">
         <v>2.08</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="18">
         <v>42926</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="15">
+      <c r="A16" s="17">
         <v>2.09</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="18">
         <v>43018</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="15">
+      <c r="A17" s="17">
         <v>2.1</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="17">
         <v>8</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="D17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="18">
         <v>43018</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="15">
+      <c r="A18" s="17">
         <v>2.11</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="17">
         <v>3</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="18">
         <v>43049</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15">
+      <c r="A19" s="17">
         <v>2.12</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>5</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15">
+      <c r="A20" s="17">
         <v>2.13</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="17">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15">
+      <c r="A21" s="17">
         <v>2.14</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="17">
         <v>5</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="30" spans="1:6">
-      <c r="A26" s="15">
+      <c r="A26" s="17">
         <v>3.01</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="20">
         <v>7</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="D26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="18">
         <v>42957</v>
       </c>
       <c r="F26" s="1">
@@ -1708,19 +1738,19 @@
       </c>
     </row>
     <row r="27" ht="30" spans="1:6">
-      <c r="A27" s="15">
+      <c r="A27" s="17">
         <v>3.02</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="20">
         <v>7</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="D27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="18">
         <v>43018</v>
       </c>
       <c r="F27" s="1">
@@ -1728,19 +1758,19 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="15">
+      <c r="A28" s="17">
         <v>3.03</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="20">
         <v>2</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="D28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="18">
         <v>43079</v>
       </c>
       <c r="F28" s="1">
@@ -1748,19 +1778,19 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="15">
+      <c r="A29" s="17">
         <v>3.04</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="20">
         <v>4</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="17">
+      <c r="D29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="18">
         <v>43079</v>
       </c>
       <c r="F29" s="1">
@@ -1768,19 +1798,19 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="15">
+      <c r="A30" s="17">
         <v>3.05</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="20">
         <v>16</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="1">
@@ -1788,19 +1818,19 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="15">
+      <c r="A31" s="17">
         <v>3.06</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="20">
         <v>15</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="18" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="1"/>
@@ -1809,14 +1839,14 @@
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="1"/>
     </row>
   </sheetData>
@@ -1828,10 +1858,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1839,270 +1869,273 @@
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="40.2857142857143" style="2" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="20.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="61.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="3"/>
+    <col min="5" max="5" width="14.8571428571429" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.8571428571429" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2.11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>2.12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>2.13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>2.14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>5</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>2.01</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>2.02</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>2.03</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11">
+        <v>2.04</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10">
-        <v>2.04</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10">
-        <v>3.01</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="E13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="10" t="s">
+    </row>
+    <row r="14" ht="30" spans="1:6">
+      <c r="A14" s="11">
+        <v>3.02</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" ht="30" spans="1:6">
-      <c r="A14" s="10">
-        <v>3.02</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2</v>
+      <c r="F14" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>3.03</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>4</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2110,349 +2143,496 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="2:5">
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="13" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="1"/>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="14">
+        <v>42777</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:5">
+      <c r="A19" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="14">
-        <v>3</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="14">
-        <v>3</v>
-      </c>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10">
-        <v>1.02</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="A21" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10">
-        <v>1.03</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="14">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="A22" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="14">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10">
-        <v>1.05</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="14">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="4:5">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="13"/>
+      <c r="B26" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10">
-        <v>2.01</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="14">
-        <v>5</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="10" t="s">
+    <row r="27" spans="2:5">
+      <c r="B27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10">
-        <v>2.02</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="C28" s="16">
         <v>3</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="D28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10">
-        <v>2.03</v>
-      </c>
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="16">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="16">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="16">
         <v>7</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10">
-        <v>2.04</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="14">
-        <v>10</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" ht="30" spans="1:7">
-      <c r="A33" s="10">
-        <v>3.01</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="14">
-        <v>5</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="14">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="D32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="11">
+        <v>2.01</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="16">
+        <v>5</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="10">
-        <v>4.01</v>
-      </c>
-      <c r="B36" s="14" t="s">
+      <c r="F35" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11">
+        <v>2.02</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="16">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="11">
+        <v>2.03</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="14">
-        <v>30</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="10">
-        <v>5.01</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="14">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="10"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="C37" s="16">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11">
+        <v>2.04</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="16">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="10">
-        <v>6.01</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="14">
-        <v>30</v>
-      </c>
+    <row r="40" spans="2:5">
+      <c r="B40" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="15"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="5" t="s">
+    <row r="41" ht="30" spans="1:7">
+      <c r="A41" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="16">
+        <v>5</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" ht="45" spans="1:7">
-      <c r="A43" s="1">
+      <c r="F41" s="16">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11">
+        <v>4.01</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="16">
+        <v>30</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="14">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11">
+        <v>5.01</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="16">
+        <v>11</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="14">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11">
+        <v>6.01</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11">
+        <v>6.02</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="16">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="14">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11">
+        <v>6.03</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="16">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" ht="45" spans="1:7">
+      <c r="A55" s="1">
         <v>7.01</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="2">
         <v>10</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="D55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="14">
+        <v>42777</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
         <v>7.02</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="D56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="14">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
         <v>7.03</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="2">
         <v>2</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="14">
+        <v>42777</v>
+      </c>
+    </row>
+    <row r="58" ht="30" spans="1:3">
+      <c r="A58" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
